--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A9206-A37D-4114-BA07-33A9F4248B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3400A693-F0C3-4EE5-A7F3-7E08AA5A5614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4044" yWindow="1056" windowWidth="17280" windowHeight="11184" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
@@ -34,15 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Correct username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Correct password</t>
+    <t>Invaid Username</t>
+  </si>
+  <si>
+    <t>invalidUsername</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>Correct Username</t>
+  </si>
+  <si>
+    <t>Correct Password</t>
   </si>
 </sst>
 </file>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D4A6D8-221E-4B05-8210-0DA66C75F79E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,18 +420,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3400A693-F0C3-4EE5-A7F3-7E08AA5A5614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB594189-A0C2-48A8-92A0-08812D5A0346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="1056" windowWidth="17280" windowHeight="11184" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageLocationsTest" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageDeliveryBoyTest" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageSliderTest" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageExpenseTest" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageOfferCodeTest" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>admin</t>
   </si>
@@ -55,6 +60,132 @@
   </si>
   <si>
     <t>Correct Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>selectedMenu</t>
+  </si>
+  <si>
+    <t>Manage Location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Tvmmm</t>
+  </si>
+  <si>
+    <t>deliveryCharge</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>visibleText</t>
+  </si>
+  <si>
+    <t>Andre Bashirian</t>
+  </si>
+  <si>
+    <t>Sunny@gmail.com</t>
+  </si>
+  <si>
+    <t>Manage Delivery Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>expectedName</t>
+  </si>
+  <si>
+    <t>expectedEmail</t>
+  </si>
+  <si>
+    <t>expectedPhoneNumber</t>
+  </si>
+  <si>
+    <t>Manage Slider</t>
+  </si>
+  <si>
+    <t>https://wiki/File:Lion.jpg</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Manage Expense</t>
+  </si>
+  <si>
+    <t>232(Staff)</t>
+  </si>
+  <si>
+    <t>FruitNew</t>
+  </si>
+  <si>
+    <t>Debit Cash</t>
+  </si>
+  <si>
+    <t>Lion's image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  selectedMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  visibleTextOfUserId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  visibleTextOfCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  visibleTextOfOrderId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  visibleTextOfPurchaseId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  visibleTextOfExpenseType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  remarks</t>
+  </si>
+  <si>
+    <t>Manage Offer Code</t>
+  </si>
+  <si>
+    <t>X100RIZZ</t>
+  </si>
+  <si>
+    <t>New Year Offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  offerCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  percentage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  description</t>
   </si>
 </sst>
 </file>
@@ -90,8 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D4A6D8-221E-4B05-8210-0DA66C75F79E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,4 +586,381 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428FD0E5-33C9-4FAE-A496-18CFB4278E60}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF28234E-F15D-4D68-9F03-5B8CFEEEB836}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>8915019834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466AACE8-FFAE-4EAE-8CAD-3DF1A2B3F74A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B21B7B-DD64-4252-BC61-641522F2FA69}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C751B37-4890-4A3C-8119-0058B1250137}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB594189-A0C2-48A8-92A0-08812D5A0346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F893C6-CE66-4F4D-80FE-167D8DB95F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="2" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ManageSliderTest" sheetId="4" r:id="rId4"/>
     <sheet name="ManageExpenseTest" sheetId="5" r:id="rId5"/>
     <sheet name="ManageOfferCodeTest" sheetId="6" r:id="rId6"/>
+    <sheet name="AdminUsersTest" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>admin</t>
   </si>
@@ -92,27 +93,9 @@
     <t>visibleText</t>
   </si>
   <si>
-    <t>Andre Bashirian</t>
-  </si>
-  <si>
-    <t>Sunny@gmail.com</t>
-  </si>
-  <si>
-    <t>Manage Delivery Boy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Password </t>
   </si>
   <si>
-    <t>expectedName</t>
-  </si>
-  <si>
-    <t>expectedEmail</t>
-  </si>
-  <si>
-    <t>expectedPhoneNumber</t>
-  </si>
-  <si>
     <t>Manage Slider</t>
   </si>
   <si>
@@ -186,6 +169,21 @@
   </si>
   <si>
     <t xml:space="preserve">  description</t>
+  </si>
+  <si>
+    <t>passwordToAdd</t>
+  </si>
+  <si>
+    <t>Zxcv@0987</t>
+  </si>
+  <si>
+    <t>visibleTextOfUserType</t>
+  </si>
+  <si>
+    <t>Admin Users</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -666,10 +664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF28234E-F15D-4D68-9F03-5B8CFEEEB836}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,42 +687,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>8915019834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -767,15 +733,15 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -807,7 +773,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -815,23 +781,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45321</v>
@@ -839,15 +805,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -855,7 +821,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -863,15 +829,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>8500</v>
@@ -879,10 +845,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -894,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C751B37-4890-4A3C-8119-0058B1250137}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +872,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -914,7 +880,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -922,23 +888,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
         <v>0.3</v>
@@ -946,7 +912,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -954,13 +920,73 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A85E9-B02B-4C8E-BED3-30F150EF5EEE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F893C6-CE66-4F4D-80FE-167D8DB95F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFCBD7-2CCB-40F1-8921-7699B2251C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="2" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>admin</t>
   </si>
@@ -156,18 +156,9 @@
     <t>Manage Offer Code</t>
   </si>
   <si>
-    <t>X100RIZZ</t>
-  </si>
-  <si>
     <t>New Year Offer</t>
   </si>
   <si>
-    <t xml:space="preserve">  offerCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  percentage </t>
-  </si>
-  <si>
     <t xml:space="preserve">  description</t>
   </si>
   <si>
@@ -184,6 +175,12 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  percentage</t>
+  </si>
+  <si>
+    <t>Manage Delivery Boy</t>
   </si>
 </sst>
 </file>
@@ -664,10 +661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF28234E-F15D-4D68-9F03-5B8CFEEEB836}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,8 +690,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -861,7 +867,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,19 +902,14 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -920,10 +921,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -966,23 +967,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFCBD7-2CCB-40F1-8921-7699B2251C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966E22F-BC67-47F8-A85F-ECFCC86BDDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="2" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="5" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF28234E-F15D-4D68-9F03-5B8CFEEEB836}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -864,10 +863,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C751B37-4890-4A3C-8119-0058B1250137}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,21 +908,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
     </row>

--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966E22F-BC67-47F8-A85F-ECFCC86BDDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68B41D-49D3-46CF-88A3-9F8141FCAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="5" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="6" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="ManageSliderTest" sheetId="4" r:id="rId4"/>
     <sheet name="ManageExpenseTest" sheetId="5" r:id="rId5"/>
     <sheet name="ManageOfferCodeTest" sheetId="6" r:id="rId6"/>
-    <sheet name="AdminUsersTest" sheetId="7" r:id="rId7"/>
+    <sheet name="ManageOrdersTest" sheetId="8" r:id="rId7"/>
+    <sheet name="AdminUsersTest" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>admin</t>
   </si>
@@ -181,6 +182,27 @@
   </si>
   <si>
     <t>Manage Delivery Boy</t>
+  </si>
+  <si>
+    <t>Manage Orders</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>10:45pm</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>11:00pm</t>
+  </si>
+  <si>
+    <t>visibleTextOfUserId</t>
+  </si>
+  <si>
+    <t>jack</t>
   </si>
 </sst>
 </file>
@@ -663,7 +685,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C751B37-4890-4A3C-8119-0058B1250137}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,6 +951,73 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A92E1-394C-45A6-8145-56D1892BC57F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A85E9-B02B-4C8E-BED3-30F150EF5EEE}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68B41D-49D3-46CF-88A3-9F8141FCAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EA6E3-FC49-4023-AAAC-015637CEB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="6" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>admin</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>jack</t>
+  </si>
+  <si>
+    <t>adminYadhu</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D4A6D8-221E-4B05-8210-0DA66C75F79E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A92E1-394C-45A6-8145-56D1892BC57F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/7rmartPro1/src/main/resources/TestData.xlsx
+++ b/7rmartPro1/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProjects\7rmartPro1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EA6E3-FC49-4023-AAAC-015637CEB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB41238-61BD-47F1-8A3E-46E86647F01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" xr2:uid="{864BBC4D-16B3-49E8-B0CD-A0732A24B301}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>admin</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>jack</t>
-  </si>
-  <si>
-    <t>adminYadhu</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
